--- a/Code/Results/Cases/Case_4_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020179651738648</v>
+        <v>1.045818994846036</v>
       </c>
       <c r="D2">
-        <v>1.038894992745571</v>
+        <v>1.053450030206506</v>
       </c>
       <c r="E2">
-        <v>1.028225225609941</v>
+        <v>1.049485684645299</v>
       </c>
       <c r="F2">
-        <v>1.039657133251928</v>
+        <v>1.06078721916428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056330761341906</v>
+        <v>1.046568187511246</v>
       </c>
       <c r="J2">
-        <v>1.041773101314805</v>
+        <v>1.050876694461945</v>
       </c>
       <c r="K2">
-        <v>1.049837802035996</v>
+        <v>1.056195965933123</v>
       </c>
       <c r="L2">
-        <v>1.039304859128702</v>
+        <v>1.052242610569663</v>
       </c>
       <c r="M2">
-        <v>1.050590303333697</v>
+        <v>1.063513048958521</v>
       </c>
       <c r="N2">
-        <v>1.043252538611717</v>
+        <v>1.052369059905323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025051650992175</v>
+        <v>1.046832255539727</v>
       </c>
       <c r="D3">
-        <v>1.042829088262291</v>
+        <v>1.054287329562006</v>
       </c>
       <c r="E3">
-        <v>1.032612504404327</v>
+        <v>1.050448200525592</v>
       </c>
       <c r="F3">
-        <v>1.044283441516706</v>
+        <v>1.061804289798447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058217473243484</v>
+        <v>1.046890954876427</v>
       </c>
       <c r="J3">
-        <v>1.044881922620719</v>
+        <v>1.051537457309625</v>
       </c>
       <c r="K3">
-        <v>1.052941791620571</v>
+        <v>1.056846250181206</v>
       </c>
       <c r="L3">
-        <v>1.042844437514077</v>
+        <v>1.053016994076385</v>
       </c>
       <c r="M3">
-        <v>1.054379406491363</v>
+        <v>1.06434410218589</v>
       </c>
       <c r="N3">
-        <v>1.046365774800472</v>
+        <v>1.053030761112036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028136632662718</v>
+        <v>1.047488142222786</v>
       </c>
       <c r="D4">
-        <v>1.045322531155875</v>
+        <v>1.054829292733861</v>
       </c>
       <c r="E4">
-        <v>1.035395606107833</v>
+        <v>1.051071583725149</v>
       </c>
       <c r="F4">
-        <v>1.04721816091438</v>
+        <v>1.062463019932425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059401725907545</v>
+        <v>1.04709859947846</v>
       </c>
       <c r="J4">
-        <v>1.04684699319041</v>
+        <v>1.05196464834423</v>
       </c>
       <c r="K4">
-        <v>1.054903075569692</v>
+        <v>1.057266554477654</v>
       </c>
       <c r="L4">
-        <v>1.045084811493256</v>
+        <v>1.053518022070909</v>
       </c>
       <c r="M4">
-        <v>1.056778242795817</v>
+        <v>1.064881854305419</v>
       </c>
       <c r="N4">
-        <v>1.048333635995769</v>
+        <v>1.05345855880691</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029418003697087</v>
+        <v>1.04776393397886</v>
       </c>
       <c r="D5">
-        <v>1.046358717850958</v>
+        <v>1.055057175052615</v>
       </c>
       <c r="E5">
-        <v>1.036552764207821</v>
+        <v>1.051333790048752</v>
       </c>
       <c r="F5">
-        <v>1.048438357330655</v>
+        <v>1.062740097206799</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059891075351296</v>
+        <v>1.047185603889778</v>
       </c>
       <c r="J5">
-        <v>1.047662337778633</v>
+        <v>1.052144151184804</v>
       </c>
       <c r="K5">
-        <v>1.055716666851503</v>
+        <v>1.057443136605857</v>
       </c>
       <c r="L5">
-        <v>1.046015114494043</v>
+        <v>1.053728641729771</v>
       </c>
       <c r="M5">
-        <v>1.05777447176217</v>
+        <v>1.065107925917149</v>
       </c>
       <c r="N5">
-        <v>1.049150138466828</v>
+        <v>1.053638316562107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029632256522647</v>
+        <v>1.047810243962268</v>
       </c>
       <c r="D6">
-        <v>1.046532003383668</v>
+        <v>1.055095439878514</v>
       </c>
       <c r="E6">
-        <v>1.036746315969476</v>
+        <v>1.051377823600984</v>
       </c>
       <c r="F6">
-        <v>1.048642453153084</v>
+        <v>1.062786628308013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05997274713192</v>
+        <v>1.047200195334978</v>
       </c>
       <c r="J6">
-        <v>1.047798616547338</v>
+        <v>1.052174285311496</v>
       </c>
       <c r="K6">
-        <v>1.055852641673686</v>
+        <v>1.05747277883341</v>
       </c>
       <c r="L6">
-        <v>1.046170650747802</v>
+        <v>1.053764004947439</v>
       </c>
       <c r="M6">
-        <v>1.05794103744864</v>
+        <v>1.06514588435445</v>
       </c>
       <c r="N6">
-        <v>1.049286610767016</v>
+        <v>1.053668493482717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028153814741499</v>
+        <v>1.047491827142123</v>
       </c>
       <c r="D7">
-        <v>1.045336423547462</v>
+        <v>1.05483233754842</v>
       </c>
       <c r="E7">
-        <v>1.03541111800117</v>
+        <v>1.051075086805243</v>
       </c>
       <c r="F7">
-        <v>1.04723451784955</v>
+        <v>1.062466721675276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059408297742152</v>
+        <v>1.047099763173109</v>
       </c>
       <c r="J7">
-        <v>1.046857929709352</v>
+        <v>1.05196704721741</v>
       </c>
       <c r="K7">
-        <v>1.054913989299327</v>
+        <v>1.057268914424513</v>
       </c>
       <c r="L7">
-        <v>1.045097287100986</v>
+        <v>1.053520836430953</v>
       </c>
       <c r="M7">
-        <v>1.056791601993676</v>
+        <v>1.064884875083671</v>
       </c>
       <c r="N7">
-        <v>1.048344588045822</v>
+        <v>1.053460961086765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021840527196622</v>
+        <v>1.046161381329088</v>
       </c>
       <c r="D8">
-        <v>1.040235612347901</v>
+        <v>1.053732962846859</v>
       </c>
       <c r="E8">
-        <v>1.02971977687657</v>
+        <v>1.049810852737499</v>
       </c>
       <c r="F8">
-        <v>1.041233114871671</v>
+        <v>1.061130814692008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05697611017663</v>
+        <v>1.046677518080756</v>
       </c>
       <c r="J8">
-        <v>1.042833609650499</v>
+        <v>1.051100078001845</v>
       </c>
       <c r="K8">
-        <v>1.050896812059781</v>
+        <v>1.056415830173131</v>
       </c>
       <c r="L8">
-        <v>1.040511678307111</v>
+        <v>1.052504327099709</v>
       </c>
       <c r="M8">
-        <v>1.051882087086127</v>
+        <v>1.063793905866713</v>
       </c>
       <c r="N8">
-        <v>1.044314552990891</v>
+        <v>1.052592760675472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010169305024947</v>
+        <v>1.043818810576075</v>
       </c>
       <c r="D9">
-        <v>1.030826922039411</v>
+        <v>1.051797094599239</v>
       </c>
       <c r="E9">
-        <v>1.019240387231356</v>
+        <v>1.047587514577871</v>
       </c>
       <c r="F9">
-        <v>1.03018263632527</v>
+        <v>1.058781534726635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052398390545209</v>
+        <v>1.045924234101305</v>
       </c>
       <c r="J9">
-        <v>1.035367999802034</v>
+        <v>1.049569579858171</v>
       </c>
       <c r="K9">
-        <v>1.043438897343332</v>
+        <v>1.054908986951454</v>
       </c>
       <c r="L9">
-        <v>1.032028829110535</v>
+        <v>1.050712750018922</v>
       </c>
       <c r="M9">
-        <v>1.042804291610719</v>
+        <v>1.061871544266581</v>
       </c>
       <c r="N9">
-        <v>1.036838341120122</v>
+        <v>1.051060089048883</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001977326522153</v>
+        <v>1.042258351204235</v>
       </c>
       <c r="D10">
-        <v>1.024240753240534</v>
+        <v>1.050507481362008</v>
       </c>
       <c r="E10">
-        <v>1.011916154763743</v>
+        <v>1.046108288764493</v>
       </c>
       <c r="F10">
-        <v>1.022459030314259</v>
+        <v>1.057218586232545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04913270168947</v>
+        <v>1.04541585353284</v>
       </c>
       <c r="J10">
-        <v>1.030112712018254</v>
+        <v>1.048547400237252</v>
       </c>
       <c r="K10">
-        <v>1.038185705206561</v>
+        <v>1.05390203478608</v>
       </c>
       <c r="L10">
-        <v>1.026073541600202</v>
+        <v>1.049518156159177</v>
       </c>
       <c r="M10">
-        <v>1.036434284238073</v>
+        <v>1.060590047773212</v>
       </c>
       <c r="N10">
-        <v>1.0315755902249</v>
+        <v>1.050036457815656</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.998321874790321</v>
+        <v>1.041582954789049</v>
       </c>
       <c r="D11">
-        <v>1.021306895460088</v>
+        <v>1.049949302410095</v>
       </c>
       <c r="E11">
-        <v>1.008655968646378</v>
+        <v>1.045468486697782</v>
       </c>
       <c r="F11">
-        <v>1.019020995030664</v>
+        <v>1.056542587816229</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047663588975032</v>
+        <v>1.045194253953326</v>
       </c>
       <c r="J11">
-        <v>1.027764632756485</v>
+        <v>1.048104352088887</v>
       </c>
       <c r="K11">
-        <v>1.035837878588474</v>
+        <v>1.053465452383665</v>
       </c>
       <c r="L11">
-        <v>1.023416471645167</v>
+        <v>1.049000840295394</v>
       </c>
       <c r="M11">
-        <v>1.033592902121738</v>
+        <v>1.060035170675554</v>
       </c>
       <c r="N11">
-        <v>1.029224176421251</v>
+        <v>1.049592780488103</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9969468160773963</v>
+        <v>1.041332126552093</v>
       </c>
       <c r="D12">
-        <v>1.020204109569529</v>
+        <v>1.049742005407496</v>
       </c>
       <c r="E12">
-        <v>1.007430865621655</v>
+        <v>1.045230943303254</v>
       </c>
       <c r="F12">
-        <v>1.017729046498882</v>
+        <v>1.056291607906448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047109225525367</v>
+        <v>1.045111721745315</v>
       </c>
       <c r="J12">
-        <v>1.026880956583858</v>
+        <v>1.04793971887524</v>
       </c>
       <c r="K12">
-        <v>1.034954204129745</v>
+        <v>1.053303201690852</v>
       </c>
       <c r="L12">
-        <v>1.022417073369206</v>
+        <v>1.048808679231418</v>
       </c>
       <c r="M12">
-        <v>1.032524289767246</v>
+        <v>1.059829067975644</v>
       </c>
       <c r="N12">
-        <v>1.028339245327099</v>
+        <v>1.049427913476409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.997242568770193</v>
+        <v>1.041385928065148</v>
       </c>
       <c r="D13">
-        <v>1.020441261917759</v>
+        <v>1.049786469700851</v>
       </c>
       <c r="E13">
-        <v>1.00769430692741</v>
+        <v>1.04528189229083</v>
       </c>
       <c r="F13">
-        <v>1.018006862657788</v>
+        <v>1.056345438691282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047228537429729</v>
+        <v>1.045129435147836</v>
       </c>
       <c r="J13">
-        <v>1.027071038466458</v>
+        <v>1.047975036212583</v>
       </c>
       <c r="K13">
-        <v>1.03514428970578</v>
+        <v>1.053338008834754</v>
       </c>
       <c r="L13">
-        <v>1.022632022083259</v>
+        <v>1.048849898738287</v>
       </c>
       <c r="M13">
-        <v>1.032754119868786</v>
+        <v>1.05987327754504</v>
       </c>
       <c r="N13">
-        <v>1.028529597147775</v>
+        <v>1.049463280968422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9982085701578572</v>
+        <v>1.041562220349398</v>
       </c>
       <c r="D14">
-        <v>1.021216008684938</v>
+        <v>1.049932166447009</v>
       </c>
       <c r="E14">
-        <v>1.008554994179389</v>
+        <v>1.045448849088957</v>
       </c>
       <c r="F14">
-        <v>1.018914511370337</v>
+        <v>1.056521839369147</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047617944392505</v>
+        <v>1.045187436307235</v>
       </c>
       <c r="J14">
-        <v>1.027691825946108</v>
+        <v>1.048090744788327</v>
       </c>
       <c r="K14">
-        <v>1.035765073760559</v>
+        <v>1.053452042413218</v>
       </c>
       <c r="L14">
-        <v>1.023334118965021</v>
+        <v>1.04898495634061</v>
       </c>
       <c r="M14">
-        <v>1.033504843778163</v>
+        <v>1.060018134090905</v>
       </c>
       <c r="N14">
-        <v>1.029151266216851</v>
+        <v>1.049579153863615</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988014371560953</v>
+        <v>1.041670845685305</v>
       </c>
       <c r="D15">
-        <v>1.021691608557183</v>
+        <v>1.050021939746025</v>
       </c>
       <c r="E15">
-        <v>1.009083395639927</v>
+        <v>1.04555173095415</v>
       </c>
       <c r="F15">
-        <v>1.019471741974979</v>
+        <v>1.056630541035818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047856709614912</v>
+        <v>1.045223143555855</v>
       </c>
       <c r="J15">
-        <v>1.028072771622084</v>
+        <v>1.048162028004286</v>
       </c>
       <c r="K15">
-        <v>1.036146005317052</v>
+        <v>1.053522291073004</v>
       </c>
       <c r="L15">
-        <v>1.023765034247948</v>
+        <v>1.049068168882641</v>
       </c>
       <c r="M15">
-        <v>1.033965618815082</v>
+        <v>1.060107385448555</v>
       </c>
       <c r="N15">
-        <v>1.029532752879382</v>
+        <v>1.049650538309917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002217562510068</v>
+        <v>1.042303181215015</v>
       </c>
       <c r="D16">
-        <v>1.02443367740356</v>
+        <v>1.050544530805567</v>
       </c>
       <c r="E16">
-        <v>1.012130586583944</v>
+        <v>1.046150765377485</v>
       </c>
       <c r="F16">
-        <v>1.022685157972324</v>
+        <v>1.057263466259537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049229008671585</v>
+        <v>1.045430529467616</v>
       </c>
       <c r="J16">
-        <v>1.030266968363221</v>
+        <v>1.048576794692722</v>
       </c>
       <c r="K16">
-        <v>1.038339931506166</v>
+        <v>1.05393099744307</v>
       </c>
       <c r="L16">
-        <v>1.026248175194625</v>
+        <v>1.049552487716037</v>
       </c>
       <c r="M16">
-        <v>1.036621046826261</v>
+        <v>1.060626873584957</v>
       </c>
       <c r="N16">
-        <v>1.03173006563157</v>
+        <v>1.050065894014625</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004330742080041</v>
+        <v>1.042699907026806</v>
       </c>
       <c r="D17">
-        <v>1.026131271858811</v>
+        <v>1.050872400962259</v>
       </c>
       <c r="E17">
-        <v>1.014017708795545</v>
+        <v>1.046526714974222</v>
       </c>
       <c r="F17">
-        <v>1.024675201006566</v>
+        <v>1.057660689677762</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05007480522343</v>
+        <v>1.045560224442585</v>
       </c>
       <c r="J17">
-        <v>1.031623507539712</v>
+        <v>1.048836849955412</v>
       </c>
       <c r="K17">
-        <v>1.039696129862888</v>
+        <v>1.054187217044756</v>
       </c>
       <c r="L17">
-        <v>1.027784341204088</v>
+        <v>1.049856275344191</v>
       </c>
       <c r="M17">
-        <v>1.038263988129765</v>
+        <v>1.060952740266439</v>
       </c>
       <c r="N17">
-        <v>1.033088531249288</v>
+        <v>1.050326318585617</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005552948533809</v>
+        <v>1.042931338725492</v>
       </c>
       <c r="D18">
-        <v>1.027113587858153</v>
+        <v>1.051063664427628</v>
       </c>
       <c r="E18">
-        <v>1.015109929172985</v>
+        <v>1.046746068720383</v>
       </c>
       <c r="F18">
-        <v>1.025826982113408</v>
+        <v>1.057892457499925</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050562861242679</v>
+        <v>1.045635731726555</v>
       </c>
       <c r="J18">
-        <v>1.032407801215396</v>
+        <v>1.04898849354251</v>
       </c>
       <c r="K18">
-        <v>1.040480161109787</v>
+        <v>1.054336611016579</v>
       </c>
       <c r="L18">
-        <v>1.028672844863811</v>
+        <v>1.050033464787528</v>
       </c>
       <c r="M18">
-        <v>1.039214317990568</v>
+        <v>1.061142814624026</v>
       </c>
       <c r="N18">
-        <v>1.033873938711951</v>
+        <v>1.050478177524002</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00596795845479</v>
+        <v>1.043010255742585</v>
       </c>
       <c r="D19">
-        <v>1.027447219098194</v>
+        <v>1.051128884098</v>
       </c>
       <c r="E19">
-        <v>1.015480928397926</v>
+        <v>1.046820874316719</v>
       </c>
       <c r="F19">
-        <v>1.026218211405927</v>
+        <v>1.057971496894342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050728391312595</v>
+        <v>1.045661453734867</v>
       </c>
       <c r="J19">
-        <v>1.032674063336368</v>
+        <v>1.049040192910489</v>
       </c>
       <c r="K19">
-        <v>1.040746322777309</v>
+        <v>1.054387541229073</v>
       </c>
       <c r="L19">
-        <v>1.028974546242703</v>
+        <v>1.050093880991936</v>
       </c>
       <c r="M19">
-        <v>1.03953702468992</v>
+        <v>1.061207625365541</v>
       </c>
       <c r="N19">
-        <v>1.034140578955676</v>
+        <v>1.050529950311013</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004105098034478</v>
+        <v>1.042657339179653</v>
       </c>
       <c r="D20">
-        <v>1.025949954151699</v>
+        <v>1.050837221280889</v>
       </c>
       <c r="E20">
-        <v>1.013816123798513</v>
+        <v>1.046486372029796</v>
       </c>
       <c r="F20">
-        <v>1.02446262264102</v>
+        <v>1.057618063693513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049984608472029</v>
+        <v>1.045546324044068</v>
       </c>
       <c r="J20">
-        <v>1.031478687077013</v>
+        <v>1.048808952854212</v>
       </c>
       <c r="K20">
-        <v>1.039551352506036</v>
+        <v>1.054159732749528</v>
       </c>
       <c r="L20">
-        <v>1.027620307201576</v>
+        <v>1.049823682293948</v>
       </c>
       <c r="M20">
-        <v>1.038088545396288</v>
+        <v>1.060917777662283</v>
       </c>
       <c r="N20">
-        <v>1.032943505124921</v>
+        <v>1.050298381867333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9979245916984251</v>
+        <v>1.041510305448655</v>
       </c>
       <c r="D21">
-        <v>1.020988230391472</v>
+        <v>1.04988926140115</v>
       </c>
       <c r="E21">
-        <v>1.008301939808442</v>
+        <v>1.045399681499115</v>
       </c>
       <c r="F21">
-        <v>1.018647650056186</v>
+        <v>1.056469890559743</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047503516430071</v>
+        <v>1.045170362489929</v>
       </c>
       <c r="J21">
-        <v>1.027509341889578</v>
+        <v>1.048056673299446</v>
       </c>
       <c r="K21">
-        <v>1.035582593202103</v>
+        <v>1.053418464697291</v>
       </c>
       <c r="L21">
-        <v>1.023127718063719</v>
+        <v>1.048945185430563</v>
       </c>
       <c r="M21">
-        <v>1.03328414454005</v>
+        <v>1.059975477352189</v>
       </c>
       <c r="N21">
-        <v>1.02896852301203</v>
+        <v>1.049545033989312</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.993938243421252</v>
+        <v>1.040789374795965</v>
       </c>
       <c r="D22">
-        <v>1.017792878950031</v>
+        <v>1.049293447187443</v>
       </c>
       <c r="E22">
-        <v>1.004752795090404</v>
+        <v>1.044717058726441</v>
       </c>
       <c r="F22">
-        <v>1.014904824175665</v>
+        <v>1.055748659948155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045893175404946</v>
+        <v>1.044932706302372</v>
       </c>
       <c r="J22">
-        <v>1.024946818072339</v>
+        <v>1.047583307046346</v>
       </c>
       <c r="K22">
-        <v>1.033019908347817</v>
+        <v>1.052951911075623</v>
       </c>
       <c r="L22">
-        <v>1.020230682527461</v>
+        <v>1.048392799764735</v>
       </c>
       <c r="M22">
-        <v>1.030186685419563</v>
+        <v>1.059383035414353</v>
       </c>
       <c r="N22">
-        <v>1.026402360117045</v>
+        <v>1.049070995501836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9960613534905243</v>
+        <v>1.041171529579947</v>
       </c>
       <c r="D23">
-        <v>1.019494220425879</v>
+        <v>1.049609279853797</v>
       </c>
       <c r="E23">
-        <v>1.006642331927432</v>
+        <v>1.045078870769029</v>
       </c>
       <c r="F23">
-        <v>1.016897483739371</v>
+        <v>1.056130934122794</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046751764536324</v>
+        <v>1.045058813056612</v>
       </c>
       <c r="J23">
-        <v>1.026311809268769</v>
+        <v>1.047834283190828</v>
       </c>
       <c r="K23">
-        <v>1.034385032819642</v>
+        <v>1.053199286191327</v>
       </c>
       <c r="L23">
-        <v>1.021773551589234</v>
+        <v>1.048685633491785</v>
       </c>
       <c r="M23">
-        <v>1.031836231947073</v>
+        <v>1.059697098078495</v>
       </c>
       <c r="N23">
-        <v>1.02776928975754</v>
+        <v>1.049322328061231</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004207088856172</v>
+        <v>1.042676573670085</v>
       </c>
       <c r="D24">
-        <v>1.026031908064016</v>
+        <v>1.050853117395551</v>
       </c>
       <c r="E24">
-        <v>1.013907237610065</v>
+        <v>1.046504601057524</v>
       </c>
       <c r="F24">
-        <v>1.024558705335552</v>
+        <v>1.057637324311922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050025380797617</v>
+        <v>1.045552605473313</v>
       </c>
       <c r="J24">
-        <v>1.031544146652156</v>
+        <v>1.048821558483928</v>
       </c>
       <c r="K24">
-        <v>1.039616792800623</v>
+        <v>1.054172151888129</v>
       </c>
       <c r="L24">
-        <v>1.027694450284416</v>
+        <v>1.049838409705014</v>
       </c>
       <c r="M24">
-        <v>1.038167844993658</v>
+        <v>1.060933575752447</v>
       </c>
       <c r="N24">
-        <v>1.03300905766017</v>
+        <v>1.050311005398489</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013255665511297</v>
+        <v>1.044424201209699</v>
       </c>
       <c r="D25">
-        <v>1.033312180773333</v>
+        <v>1.052297395987201</v>
       </c>
       <c r="E25">
-        <v>1.022006411955938</v>
+        <v>1.048161774923931</v>
       </c>
       <c r="F25">
-        <v>1.033099431016329</v>
+        <v>1.059388311995223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053618170316314</v>
+        <v>1.046120068589367</v>
       </c>
       <c r="J25">
-        <v>1.03734501295381</v>
+        <v>1.049965577914344</v>
       </c>
       <c r="K25">
-        <v>1.045414476136306</v>
+        <v>1.055298965520645</v>
       </c>
       <c r="L25">
-        <v>1.034272448510603</v>
+        <v>1.051175954804926</v>
       </c>
       <c r="M25">
-        <v>1.045204765752226</v>
+        <v>1.062368509570562</v>
       </c>
       <c r="N25">
-        <v>1.03881816185734</v>
+        <v>1.051456649467717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045818994846036</v>
+        <v>1.020179651738648</v>
       </c>
       <c r="D2">
-        <v>1.053450030206506</v>
+        <v>1.038894992745571</v>
       </c>
       <c r="E2">
-        <v>1.049485684645299</v>
+        <v>1.028225225609941</v>
       </c>
       <c r="F2">
-        <v>1.06078721916428</v>
+        <v>1.039657133251928</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046568187511246</v>
+        <v>1.056330761341906</v>
       </c>
       <c r="J2">
-        <v>1.050876694461945</v>
+        <v>1.041773101314805</v>
       </c>
       <c r="K2">
-        <v>1.056195965933123</v>
+        <v>1.049837802035996</v>
       </c>
       <c r="L2">
-        <v>1.052242610569663</v>
+        <v>1.039304859128702</v>
       </c>
       <c r="M2">
-        <v>1.063513048958521</v>
+        <v>1.050590303333697</v>
       </c>
       <c r="N2">
-        <v>1.052369059905323</v>
+        <v>1.043252538611717</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046832255539727</v>
+        <v>1.025051650992175</v>
       </c>
       <c r="D3">
-        <v>1.054287329562006</v>
+        <v>1.042829088262291</v>
       </c>
       <c r="E3">
-        <v>1.050448200525592</v>
+        <v>1.032612504404327</v>
       </c>
       <c r="F3">
-        <v>1.061804289798447</v>
+        <v>1.044283441516706</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046890954876427</v>
+        <v>1.058217473243484</v>
       </c>
       <c r="J3">
-        <v>1.051537457309625</v>
+        <v>1.044881922620719</v>
       </c>
       <c r="K3">
-        <v>1.056846250181206</v>
+        <v>1.052941791620571</v>
       </c>
       <c r="L3">
-        <v>1.053016994076385</v>
+        <v>1.042844437514077</v>
       </c>
       <c r="M3">
-        <v>1.06434410218589</v>
+        <v>1.054379406491363</v>
       </c>
       <c r="N3">
-        <v>1.053030761112036</v>
+        <v>1.046365774800472</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047488142222786</v>
+        <v>1.028136632662717</v>
       </c>
       <c r="D4">
-        <v>1.054829292733861</v>
+        <v>1.045322531155875</v>
       </c>
       <c r="E4">
-        <v>1.051071583725149</v>
+        <v>1.035395606107832</v>
       </c>
       <c r="F4">
-        <v>1.062463019932425</v>
+        <v>1.04721816091438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04709859947846</v>
+        <v>1.059401725907545</v>
       </c>
       <c r="J4">
-        <v>1.05196464834423</v>
+        <v>1.04684699319041</v>
       </c>
       <c r="K4">
-        <v>1.057266554477654</v>
+        <v>1.054903075569691</v>
       </c>
       <c r="L4">
-        <v>1.053518022070909</v>
+        <v>1.045084811493256</v>
       </c>
       <c r="M4">
-        <v>1.064881854305419</v>
+        <v>1.056778242795816</v>
       </c>
       <c r="N4">
-        <v>1.05345855880691</v>
+        <v>1.048333635995769</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04776393397886</v>
+        <v>1.029418003697088</v>
       </c>
       <c r="D5">
-        <v>1.055057175052615</v>
+        <v>1.046358717850958</v>
       </c>
       <c r="E5">
-        <v>1.051333790048752</v>
+        <v>1.036552764207821</v>
       </c>
       <c r="F5">
-        <v>1.062740097206799</v>
+        <v>1.048438357330655</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047185603889778</v>
+        <v>1.059891075351297</v>
       </c>
       <c r="J5">
-        <v>1.052144151184804</v>
+        <v>1.047662337778634</v>
       </c>
       <c r="K5">
-        <v>1.057443136605857</v>
+        <v>1.055716666851504</v>
       </c>
       <c r="L5">
-        <v>1.053728641729771</v>
+        <v>1.046015114494044</v>
       </c>
       <c r="M5">
-        <v>1.065107925917149</v>
+        <v>1.057774471762171</v>
       </c>
       <c r="N5">
-        <v>1.053638316562107</v>
+        <v>1.049150138466829</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047810243962268</v>
+        <v>1.029632256522647</v>
       </c>
       <c r="D6">
-        <v>1.055095439878514</v>
+        <v>1.046532003383668</v>
       </c>
       <c r="E6">
-        <v>1.051377823600984</v>
+        <v>1.036746315969477</v>
       </c>
       <c r="F6">
-        <v>1.062786628308013</v>
+        <v>1.048642453153084</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047200195334978</v>
+        <v>1.059972747131921</v>
       </c>
       <c r="J6">
-        <v>1.052174285311496</v>
+        <v>1.047798616547338</v>
       </c>
       <c r="K6">
-        <v>1.05747277883341</v>
+        <v>1.055852641673686</v>
       </c>
       <c r="L6">
-        <v>1.053764004947439</v>
+        <v>1.046170650747803</v>
       </c>
       <c r="M6">
-        <v>1.06514588435445</v>
+        <v>1.057941037448641</v>
       </c>
       <c r="N6">
-        <v>1.053668493482717</v>
+        <v>1.049286610767017</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047491827142123</v>
+        <v>1.028153814741499</v>
       </c>
       <c r="D7">
-        <v>1.05483233754842</v>
+        <v>1.04533642354746</v>
       </c>
       <c r="E7">
-        <v>1.051075086805243</v>
+        <v>1.03541111800117</v>
       </c>
       <c r="F7">
-        <v>1.062466721675276</v>
+        <v>1.047234517849549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047099763173109</v>
+        <v>1.059408297742152</v>
       </c>
       <c r="J7">
-        <v>1.05196704721741</v>
+        <v>1.046857929709351</v>
       </c>
       <c r="K7">
-        <v>1.057268914424513</v>
+        <v>1.054913989299326</v>
       </c>
       <c r="L7">
-        <v>1.053520836430953</v>
+        <v>1.045097287100986</v>
       </c>
       <c r="M7">
-        <v>1.064884875083671</v>
+        <v>1.056791601993676</v>
       </c>
       <c r="N7">
-        <v>1.053460961086765</v>
+        <v>1.048344588045821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046161381329088</v>
+        <v>1.021840527196623</v>
       </c>
       <c r="D8">
-        <v>1.053732962846859</v>
+        <v>1.040235612347902</v>
       </c>
       <c r="E8">
-        <v>1.049810852737499</v>
+        <v>1.029719776876571</v>
       </c>
       <c r="F8">
-        <v>1.061130814692008</v>
+        <v>1.041233114871672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046677518080756</v>
+        <v>1.056976110176631</v>
       </c>
       <c r="J8">
-        <v>1.051100078001845</v>
+        <v>1.042833609650501</v>
       </c>
       <c r="K8">
-        <v>1.056415830173131</v>
+        <v>1.050896812059781</v>
       </c>
       <c r="L8">
-        <v>1.052504327099709</v>
+        <v>1.040511678307112</v>
       </c>
       <c r="M8">
-        <v>1.063793905866713</v>
+        <v>1.051882087086128</v>
       </c>
       <c r="N8">
-        <v>1.052592760675472</v>
+        <v>1.044314552990891</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043818810576075</v>
+        <v>1.010169305024946</v>
       </c>
       <c r="D9">
-        <v>1.051797094599239</v>
+        <v>1.03082692203941</v>
       </c>
       <c r="E9">
-        <v>1.047587514577871</v>
+        <v>1.019240387231355</v>
       </c>
       <c r="F9">
-        <v>1.058781534726635</v>
+        <v>1.030182636325268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045924234101305</v>
+        <v>1.052398390545208</v>
       </c>
       <c r="J9">
-        <v>1.049569579858171</v>
+        <v>1.035367999802033</v>
       </c>
       <c r="K9">
-        <v>1.054908986951454</v>
+        <v>1.043438897343331</v>
       </c>
       <c r="L9">
-        <v>1.050712750018922</v>
+        <v>1.032028829110534</v>
       </c>
       <c r="M9">
-        <v>1.061871544266581</v>
+        <v>1.042804291610718</v>
       </c>
       <c r="N9">
-        <v>1.051060089048883</v>
+        <v>1.036838341120121</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042258351204235</v>
+        <v>1.001977326522152</v>
       </c>
       <c r="D10">
-        <v>1.050507481362008</v>
+        <v>1.024240753240533</v>
       </c>
       <c r="E10">
-        <v>1.046108288764493</v>
+        <v>1.011916154763743</v>
       </c>
       <c r="F10">
-        <v>1.057218586232545</v>
+        <v>1.022459030314258</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04541585353284</v>
+        <v>1.049132701689469</v>
       </c>
       <c r="J10">
-        <v>1.048547400237252</v>
+        <v>1.030112712018253</v>
       </c>
       <c r="K10">
-        <v>1.05390203478608</v>
+        <v>1.03818570520656</v>
       </c>
       <c r="L10">
-        <v>1.049518156159177</v>
+        <v>1.026073541600201</v>
       </c>
       <c r="M10">
-        <v>1.060590047773212</v>
+        <v>1.036434284238072</v>
       </c>
       <c r="N10">
-        <v>1.050036457815656</v>
+        <v>1.031575590224899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041582954789049</v>
+        <v>0.9983218747903202</v>
       </c>
       <c r="D11">
-        <v>1.049949302410095</v>
+        <v>1.021306895460087</v>
       </c>
       <c r="E11">
-        <v>1.045468486697782</v>
+        <v>1.008655968646377</v>
       </c>
       <c r="F11">
-        <v>1.056542587816229</v>
+        <v>1.019020995030664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045194253953326</v>
+        <v>1.047663588975032</v>
       </c>
       <c r="J11">
-        <v>1.048104352088887</v>
+        <v>1.027764632756485</v>
       </c>
       <c r="K11">
-        <v>1.053465452383665</v>
+        <v>1.035837878588473</v>
       </c>
       <c r="L11">
-        <v>1.049000840295394</v>
+        <v>1.023416471645166</v>
       </c>
       <c r="M11">
-        <v>1.060035170675554</v>
+        <v>1.033592902121737</v>
       </c>
       <c r="N11">
-        <v>1.049592780488103</v>
+        <v>1.02922417642125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041332126552093</v>
+        <v>0.9969468160773957</v>
       </c>
       <c r="D12">
-        <v>1.049742005407496</v>
+        <v>1.020204109569528</v>
       </c>
       <c r="E12">
-        <v>1.045230943303254</v>
+        <v>1.007430865621654</v>
       </c>
       <c r="F12">
-        <v>1.056291607906448</v>
+        <v>1.017729046498881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045111721745315</v>
+        <v>1.047109225525367</v>
       </c>
       <c r="J12">
-        <v>1.04793971887524</v>
+        <v>1.026880956583857</v>
       </c>
       <c r="K12">
-        <v>1.053303201690852</v>
+        <v>1.034954204129744</v>
       </c>
       <c r="L12">
-        <v>1.048808679231418</v>
+        <v>1.022417073369204</v>
       </c>
       <c r="M12">
-        <v>1.059829067975644</v>
+        <v>1.032524289767246</v>
       </c>
       <c r="N12">
-        <v>1.049427913476409</v>
+        <v>1.028339245327098</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041385928065148</v>
+        <v>0.9972425687701919</v>
       </c>
       <c r="D13">
-        <v>1.049786469700851</v>
+        <v>1.020441261917758</v>
       </c>
       <c r="E13">
-        <v>1.04528189229083</v>
+        <v>1.007694306927409</v>
       </c>
       <c r="F13">
-        <v>1.056345438691282</v>
+        <v>1.018006862657787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045129435147836</v>
+        <v>1.047228537429728</v>
       </c>
       <c r="J13">
-        <v>1.047975036212583</v>
+        <v>1.027071038466456</v>
       </c>
       <c r="K13">
-        <v>1.053338008834754</v>
+        <v>1.035144289705778</v>
       </c>
       <c r="L13">
-        <v>1.048849898738287</v>
+        <v>1.022632022083257</v>
       </c>
       <c r="M13">
-        <v>1.05987327754504</v>
+        <v>1.032754119868785</v>
       </c>
       <c r="N13">
-        <v>1.049463280968422</v>
+        <v>1.028529597147773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041562220349398</v>
+        <v>0.9982085701578575</v>
       </c>
       <c r="D14">
-        <v>1.049932166447009</v>
+        <v>1.021216008684938</v>
       </c>
       <c r="E14">
-        <v>1.045448849088957</v>
+        <v>1.008554994179389</v>
       </c>
       <c r="F14">
-        <v>1.056521839369147</v>
+        <v>1.018914511370338</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045187436307235</v>
+        <v>1.047617944392506</v>
       </c>
       <c r="J14">
-        <v>1.048090744788327</v>
+        <v>1.027691825946108</v>
       </c>
       <c r="K14">
-        <v>1.053452042413218</v>
+        <v>1.035765073760559</v>
       </c>
       <c r="L14">
-        <v>1.04898495634061</v>
+        <v>1.023334118965021</v>
       </c>
       <c r="M14">
-        <v>1.060018134090905</v>
+        <v>1.033504843778164</v>
       </c>
       <c r="N14">
-        <v>1.049579153863615</v>
+        <v>1.029151266216852</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041670845685305</v>
+        <v>0.9988014371560953</v>
       </c>
       <c r="D15">
-        <v>1.050021939746025</v>
+        <v>1.021691608557183</v>
       </c>
       <c r="E15">
-        <v>1.04555173095415</v>
+        <v>1.009083395639927</v>
       </c>
       <c r="F15">
-        <v>1.056630541035818</v>
+        <v>1.019471741974979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045223143555855</v>
+        <v>1.047856709614912</v>
       </c>
       <c r="J15">
-        <v>1.048162028004286</v>
+        <v>1.028072771622084</v>
       </c>
       <c r="K15">
-        <v>1.053522291073004</v>
+        <v>1.036146005317052</v>
       </c>
       <c r="L15">
-        <v>1.049068168882641</v>
+        <v>1.023765034247948</v>
       </c>
       <c r="M15">
-        <v>1.060107385448555</v>
+        <v>1.033965618815082</v>
       </c>
       <c r="N15">
-        <v>1.049650538309917</v>
+        <v>1.029532752879382</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042303181215015</v>
+        <v>1.002217562510067</v>
       </c>
       <c r="D16">
-        <v>1.050544530805567</v>
+        <v>1.024433677403559</v>
       </c>
       <c r="E16">
-        <v>1.046150765377485</v>
+        <v>1.012130586583943</v>
       </c>
       <c r="F16">
-        <v>1.057263466259537</v>
+        <v>1.022685157972322</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045430529467616</v>
+        <v>1.049229008671584</v>
       </c>
       <c r="J16">
-        <v>1.048576794692722</v>
+        <v>1.030266968363221</v>
       </c>
       <c r="K16">
-        <v>1.05393099744307</v>
+        <v>1.038339931506165</v>
       </c>
       <c r="L16">
-        <v>1.049552487716037</v>
+        <v>1.026248175194624</v>
       </c>
       <c r="M16">
-        <v>1.060626873584957</v>
+        <v>1.03662104682626</v>
       </c>
       <c r="N16">
-        <v>1.050065894014625</v>
+        <v>1.031730065631569</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042699907026806</v>
+        <v>1.004330742080042</v>
       </c>
       <c r="D17">
-        <v>1.050872400962259</v>
+        <v>1.026131271858812</v>
       </c>
       <c r="E17">
-        <v>1.046526714974222</v>
+        <v>1.014017708795546</v>
       </c>
       <c r="F17">
-        <v>1.057660689677762</v>
+        <v>1.024675201006567</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045560224442585</v>
+        <v>1.050074805223431</v>
       </c>
       <c r="J17">
-        <v>1.048836849955412</v>
+        <v>1.031623507539713</v>
       </c>
       <c r="K17">
-        <v>1.054187217044756</v>
+        <v>1.039696129862889</v>
       </c>
       <c r="L17">
-        <v>1.049856275344191</v>
+        <v>1.027784341204089</v>
       </c>
       <c r="M17">
-        <v>1.060952740266439</v>
+        <v>1.038263988129766</v>
       </c>
       <c r="N17">
-        <v>1.050326318585617</v>
+        <v>1.033088531249289</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042931338725492</v>
+        <v>1.005552948533809</v>
       </c>
       <c r="D18">
-        <v>1.051063664427628</v>
+        <v>1.027113587858153</v>
       </c>
       <c r="E18">
-        <v>1.046746068720383</v>
+        <v>1.015109929172985</v>
       </c>
       <c r="F18">
-        <v>1.057892457499925</v>
+        <v>1.025826982113408</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045635731726555</v>
+        <v>1.05056286124268</v>
       </c>
       <c r="J18">
-        <v>1.04898849354251</v>
+        <v>1.032407801215396</v>
       </c>
       <c r="K18">
-        <v>1.054336611016579</v>
+        <v>1.040480161109788</v>
       </c>
       <c r="L18">
-        <v>1.050033464787528</v>
+        <v>1.028672844863812</v>
       </c>
       <c r="M18">
-        <v>1.061142814624026</v>
+        <v>1.039214317990568</v>
       </c>
       <c r="N18">
-        <v>1.050478177524002</v>
+        <v>1.033873938711952</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043010255742585</v>
+        <v>1.005967958454789</v>
       </c>
       <c r="D19">
-        <v>1.051128884098</v>
+        <v>1.027447219098193</v>
       </c>
       <c r="E19">
-        <v>1.046820874316719</v>
+        <v>1.015480928397926</v>
       </c>
       <c r="F19">
-        <v>1.057971496894342</v>
+        <v>1.026218211405927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045661453734867</v>
+        <v>1.050728391312594</v>
       </c>
       <c r="J19">
-        <v>1.049040192910489</v>
+        <v>1.032674063336368</v>
       </c>
       <c r="K19">
-        <v>1.054387541229073</v>
+        <v>1.040746322777309</v>
       </c>
       <c r="L19">
-        <v>1.050093880991936</v>
+        <v>1.028974546242703</v>
       </c>
       <c r="M19">
-        <v>1.061207625365541</v>
+        <v>1.039537024689919</v>
       </c>
       <c r="N19">
-        <v>1.050529950311013</v>
+        <v>1.034140578955676</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042657339179653</v>
+        <v>1.004105098034477</v>
       </c>
       <c r="D20">
-        <v>1.050837221280889</v>
+        <v>1.025949954151698</v>
       </c>
       <c r="E20">
-        <v>1.046486372029796</v>
+        <v>1.013816123798512</v>
       </c>
       <c r="F20">
-        <v>1.057618063693513</v>
+        <v>1.024462622641019</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045546324044068</v>
+        <v>1.049984608472028</v>
       </c>
       <c r="J20">
-        <v>1.048808952854212</v>
+        <v>1.031478687077012</v>
       </c>
       <c r="K20">
-        <v>1.054159732749528</v>
+        <v>1.039551352506035</v>
       </c>
       <c r="L20">
-        <v>1.049823682293948</v>
+        <v>1.027620307201574</v>
       </c>
       <c r="M20">
-        <v>1.060917777662283</v>
+        <v>1.038088545396287</v>
       </c>
       <c r="N20">
-        <v>1.050298381867333</v>
+        <v>1.032943505124921</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041510305448655</v>
+        <v>0.9979245916984241</v>
       </c>
       <c r="D21">
-        <v>1.04988926140115</v>
+        <v>1.020988230391472</v>
       </c>
       <c r="E21">
-        <v>1.045399681499115</v>
+        <v>1.00830193980844</v>
       </c>
       <c r="F21">
-        <v>1.056469890559743</v>
+        <v>1.018647650056185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045170362489929</v>
+        <v>1.04750351643007</v>
       </c>
       <c r="J21">
-        <v>1.048056673299446</v>
+        <v>1.027509341889578</v>
       </c>
       <c r="K21">
-        <v>1.053418464697291</v>
+        <v>1.035582593202103</v>
       </c>
       <c r="L21">
-        <v>1.048945185430563</v>
+        <v>1.023127718063718</v>
       </c>
       <c r="M21">
-        <v>1.059975477352189</v>
+        <v>1.03328414454005</v>
       </c>
       <c r="N21">
-        <v>1.049545033989312</v>
+        <v>1.028968523012029</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040789374795965</v>
+        <v>0.9939382434212518</v>
       </c>
       <c r="D22">
-        <v>1.049293447187443</v>
+        <v>1.017792878950031</v>
       </c>
       <c r="E22">
-        <v>1.044717058726441</v>
+        <v>1.004752795090404</v>
       </c>
       <c r="F22">
-        <v>1.055748659948155</v>
+        <v>1.014904824175665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044932706302372</v>
+        <v>1.045893175404946</v>
       </c>
       <c r="J22">
-        <v>1.047583307046346</v>
+        <v>1.024946818072338</v>
       </c>
       <c r="K22">
-        <v>1.052951911075623</v>
+        <v>1.033019908347817</v>
       </c>
       <c r="L22">
-        <v>1.048392799764735</v>
+        <v>1.020230682527461</v>
       </c>
       <c r="M22">
-        <v>1.059383035414353</v>
+        <v>1.030186685419563</v>
       </c>
       <c r="N22">
-        <v>1.049070995501836</v>
+        <v>1.026402360117044</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041171529579947</v>
+        <v>0.9960613534905233</v>
       </c>
       <c r="D23">
-        <v>1.049609279853797</v>
+        <v>1.019494220425878</v>
       </c>
       <c r="E23">
-        <v>1.045078870769029</v>
+        <v>1.006642331927431</v>
       </c>
       <c r="F23">
-        <v>1.056130934122794</v>
+        <v>1.01689748373937</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045058813056612</v>
+        <v>1.046751764536324</v>
       </c>
       <c r="J23">
-        <v>1.047834283190828</v>
+        <v>1.026311809268768</v>
       </c>
       <c r="K23">
-        <v>1.053199286191327</v>
+        <v>1.034385032819641</v>
       </c>
       <c r="L23">
-        <v>1.048685633491785</v>
+        <v>1.021773551589233</v>
       </c>
       <c r="M23">
-        <v>1.059697098078495</v>
+        <v>1.031836231947072</v>
       </c>
       <c r="N23">
-        <v>1.049322328061231</v>
+        <v>1.02776928975754</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042676573670085</v>
+        <v>1.004207088856171</v>
       </c>
       <c r="D24">
-        <v>1.050853117395551</v>
+        <v>1.026031908064015</v>
       </c>
       <c r="E24">
-        <v>1.046504601057524</v>
+        <v>1.013907237610064</v>
       </c>
       <c r="F24">
-        <v>1.057637324311922</v>
+        <v>1.024558705335551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045552605473313</v>
+        <v>1.050025380797617</v>
       </c>
       <c r="J24">
-        <v>1.048821558483928</v>
+        <v>1.031544146652156</v>
       </c>
       <c r="K24">
-        <v>1.054172151888129</v>
+        <v>1.039616792800622</v>
       </c>
       <c r="L24">
-        <v>1.049838409705014</v>
+        <v>1.027694450284415</v>
       </c>
       <c r="M24">
-        <v>1.060933575752447</v>
+        <v>1.038167844993658</v>
       </c>
       <c r="N24">
-        <v>1.050311005398489</v>
+        <v>1.033009057660169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044424201209699</v>
+        <v>1.013255665511296</v>
       </c>
       <c r="D25">
-        <v>1.052297395987201</v>
+        <v>1.033312180773333</v>
       </c>
       <c r="E25">
-        <v>1.048161774923931</v>
+        <v>1.022006411955937</v>
       </c>
       <c r="F25">
-        <v>1.059388311995223</v>
+        <v>1.033099431016329</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046120068589367</v>
+        <v>1.053618170316313</v>
       </c>
       <c r="J25">
-        <v>1.049965577914344</v>
+        <v>1.037345012953809</v>
       </c>
       <c r="K25">
-        <v>1.055298965520645</v>
+        <v>1.045414476136305</v>
       </c>
       <c r="L25">
-        <v>1.051175954804926</v>
+        <v>1.034272448510602</v>
       </c>
       <c r="M25">
-        <v>1.062368509570562</v>
+        <v>1.045204765752226</v>
       </c>
       <c r="N25">
-        <v>1.051456649467717</v>
+        <v>1.03881816185734</v>
       </c>
     </row>
   </sheetData>
